--- a/biology/Botanique/Hubert_de_Montille/Hubert_de_Montille.xlsx
+++ b/biology/Botanique/Hubert_de_Montille/Hubert_de_Montille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hubert Bizouard de Montille est un vigneron et un avocat français, né le 25 octobre 1930 à Volnay et mort le 1er novembre 2014 à Soultzeren dans le Haut-Rhin[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hubert Bizouard de Montille est un vigneron et un avocat français, né le 25 octobre 1930 à Volnay et mort le 1er novembre 2014 à Soultzeren dans le Haut-Rhin.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière d'avocat
-Hubert de Montille est avocat au barreau de Dijon à partir de 1953. Nommé bâtonnier en 1985, il exerce jusqu'en 1997[2]. Il défend notamment Bernard Laroche dans l'affaire Grégory[3].
-Viticulteur
-Hubert de Montille gère le domaine familial, situé à Volnay en Bourgogne. Son premier millésime date de 1947. Par la suite, il agrandit le domaine, dont la superficie était de quelques hectares à la mort de son père, en rachetant des parcelles[3],[4]. Elles sont plantées de pinot noir et de chardonnay[5]. Le domaine de Montille est ensuite repris par son fils Étienne[5],[6].
-Hubert de Montille apparaît dans le film documentaire franco-américain Mondovino, réalisé par Jonathan Nossiter et présenté au festival de Cannes en 2004[4],[6].
+          <t>Carrière d'avocat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hubert de Montille est avocat au barreau de Dijon à partir de 1953. Nommé bâtonnier en 1985, il exerce jusqu'en 1997. Il défend notamment Bernard Laroche dans l'affaire Grégory.
 </t>
         </is>
       </c>
@@ -543,12 +557,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Viticulteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hubert de Montille gère le domaine familial, situé à Volnay en Bourgogne. Son premier millésime date de 1947. Par la suite, il agrandit le domaine, dont la superficie était de quelques hectares à la mort de son père, en rachetant des parcelles,. Elles sont plantées de pinot noir et de chardonnay. Le domaine de Montille est ensuite repris par son fils Étienne,.
+Hubert de Montille apparaît dans le film documentaire franco-américain Mondovino, réalisé par Jonathan Nossiter et présenté au festival de Cannes en 2004,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hubert_de_Montille</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hubert_de_Montille</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur par décret du 30 décembre 1995[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur par décret du 30 décembre 1995.</t>
         </is>
       </c>
     </row>
